--- a/data/input/absenteeism_data_31.xlsx
+++ b/data/input/absenteeism_data_31.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50378</v>
+        <v>32803</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Helena da Conceição</t>
+          <t>Sophia Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>11050.44</v>
+        <v>4995.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71924</v>
+        <v>70424</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francisco Jesus</t>
+          <t>Mariane Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>2611.48</v>
+        <v>11530.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87238</v>
+        <v>51228</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sabrina Rezende</t>
+          <t>Augusto das Neves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,51 +552,51 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>6720.45</v>
+        <v>5257.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70460</v>
+        <v>95361</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Augusto Nogueira</t>
+          <t>Luiza Gonçalves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>7639.91</v>
+        <v>8545.780000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76113</v>
+        <v>95486</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Evelyn Silva</t>
+          <t>Ana Moura</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,138 +610,138 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>3605.34</v>
+        <v>4921.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78688</v>
+        <v>30985</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isabella Nunes</t>
+          <t>Gabriela Gomes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>8372.559999999999</v>
+        <v>7748.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24150</v>
+        <v>61795</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luigi Nogueira</t>
+          <t>Ana Carolina Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>3497.88</v>
+        <v>11243.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43908</v>
+        <v>9941</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicole Nunes</t>
+          <t>Elisa Dias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>6248.26</v>
+        <v>4044.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91991</v>
+        <v>97258</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Otávio Melo</t>
+          <t>Sr. Enrico Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>3540.25</v>
+        <v>10156.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24047</v>
+        <v>81653</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Oliveira</t>
+          <t>Enzo Gabriel das Neves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>11311.69</v>
+        <v>6872.47</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_31.xlsx
+++ b/data/input/absenteeism_data_31.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32803</v>
+        <v>47290</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophia Azevedo</t>
+          <t>Anthony Silva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>4995.48</v>
+        <v>10445.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70424</v>
+        <v>78551</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mariane Aragão</t>
+          <t>Ana Carolina Lopes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>11530.76</v>
+        <v>4324.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51228</v>
+        <v>24814</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Augusto das Neves</t>
+          <t>Larissa Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,216 +552,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>5257.81</v>
+        <v>3918.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95361</v>
+        <v>58971</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiza Gonçalves</t>
+          <t>Juliana Freitas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>8545.780000000001</v>
+        <v>4597.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95486</v>
+        <v>69678</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Moura</t>
+          <t>Sophie Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>4921.9</v>
+        <v>2683.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30985</v>
+        <v>8263</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gabriela Gomes</t>
+          <t>Arthur Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>7748.34</v>
+        <v>2971.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61795</v>
+        <v>36935</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Carolina Rocha</t>
+          <t>Sarah Ferreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>11243.01</v>
+        <v>4389.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9941</v>
+        <v>7096</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elisa Dias</t>
+          <t>Natália Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>4044.91</v>
+        <v>5236.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97258</v>
+        <v>74301</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Enrico Vieira</t>
+          <t>Camila Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>10156.53</v>
+        <v>7927.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81653</v>
+        <v>18749</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Gabriel das Neves</t>
+          <t>Benjamin Barbosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>6872.47</v>
+        <v>7196.21</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_31.xlsx
+++ b/data/input/absenteeism_data_31.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47290</v>
+        <v>9832</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthony Silva</t>
+          <t>Maria Eduarda Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>10445.96</v>
+        <v>5305.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78551</v>
+        <v>29399</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Carolina Lopes</t>
+          <t>Alexandre Oliveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>4324.66</v>
+        <v>7930.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24814</v>
+        <v>472</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larissa Barros</t>
+          <t>Anthony Rodrigues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>3918.05</v>
+        <v>9649.969999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58971</v>
+        <v>47709</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Juliana Freitas</t>
+          <t>Sophie Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,172 +581,172 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>4597.36</v>
+        <v>8728.290000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69678</v>
+        <v>47083</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophie Pinto</t>
+          <t>Luana Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>2683.2</v>
+        <v>12057.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8263</v>
+        <v>24211</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur Novaes</t>
+          <t>Sra. Cecília Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>2971.39</v>
+        <v>5728.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36935</v>
+        <v>30468</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sarah Ferreira</t>
+          <t>Sofia Farias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>4389.81</v>
+        <v>8537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7096</v>
+        <v>89623</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Natália Costela</t>
+          <t>Brenda Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>5236.63</v>
+        <v>4106.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74301</v>
+        <v>12581</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Camila Rezende</t>
+          <t>Isabelly Monteiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>7927.06</v>
+        <v>4518.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18749</v>
+        <v>78026</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Benjamin Barbosa</t>
+          <t>Raul Souza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>7196.21</v>
+        <v>8619.76</v>
       </c>
     </row>
   </sheetData>
